--- a/public/sample_uploads/offers_allocate.xlsx
+++ b/public/sample_uploads/offers_allocate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E337D63-B2F0-49C3-958B-FB7AC703C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA044B2-2631-44F2-B6B6-FFC13555AB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Address</t>
   </si>
@@ -37,15 +37,6 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>First Name *</t>
-  </si>
-  <si>
-    <t>Offer Quantity *</t>
-  </si>
-  <si>
-    <t>Last Name *</t>
-  </si>
-  <si>
     <t>Email *</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>Seller Branch</t>
   </si>
   <si>
-    <t>Demo 3</t>
-  </si>
-  <si>
     <t>Investor 3</t>
   </si>
   <si>
@@ -125,6 +113,15 @@
   </si>
   <si>
     <t>emp1@investor3.com</t>
+  </si>
+  <si>
+    <t>Quantity *</t>
+  </si>
+  <si>
+    <t>Full Name *</t>
+  </si>
+  <si>
+    <t>Demo 3 Investor 3</t>
   </si>
 </sst>
 </file>
@@ -587,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -602,88 +599,84 @@
     <col min="5" max="5" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.06640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="1018" max="1031" width="11.53125" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1017" max="1030" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>500</v>
       </c>
@@ -691,64 +684,61 @@
         <v>500000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1000100101</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1000100101</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>6666</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="O2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>10018765</v>
       </c>
       <c r="Q2">
         <v>10018765</v>
       </c>
-      <c r="R2">
-        <v>10018765</v>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>500</v>
       </c>
@@ -756,67 +746,64 @@
         <v>500000</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1000100101</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1000100101</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>6666</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="O3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="P3">
+        <v>10018765</v>
       </c>
       <c r="Q3">
         <v>10018765</v>
       </c>
-      <c r="R3">
-        <v>10018765</v>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{57AD8C0F-AAF8-43E5-A268-6E302BE44ABE}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{2C25B74B-4991-4E2C-AE4B-997E617A94C7}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{57AD8C0F-AAF8-43E5-A268-6E302BE44ABE}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{2C25B74B-4991-4E2C-AE4B-997E617A94C7}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{12EAF395-45CB-40B4-A1CE-D25772FD434C}"/>
     <hyperlink ref="F3" r:id="rId4" xr:uid="{0A607D3A-66DF-4E40-841E-289A745CB8D3}"/>
   </hyperlinks>
